--- a/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.08051913923424971</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2152320876816979</v>
+        <v>0.2152320876816978</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.09435103667445971</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1373154067177079</v>
+        <v>0.1384436012474369</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1520497925173207</v>
+        <v>0.1499982339713861</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06319019753353652</v>
+        <v>0.06157601175259345</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1831955447418204</v>
+        <v>0.1796595768827649</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07529346347455046</v>
+        <v>0.0756822208409953</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.11088683554346</v>
+        <v>0.1086528144370645</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05855822366658783</v>
+        <v>0.0581899620135187</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1450553570409861</v>
+        <v>0.1458866769856694</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.111010797880614</v>
+        <v>0.1131814744497364</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1389811348219182</v>
+        <v>0.1379330406194956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06443171426540199</v>
+        <v>0.06511005237671989</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1705027289222403</v>
+        <v>0.1704514442811711</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1912212336821521</v>
+        <v>0.1940186568268518</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2061308712556983</v>
+        <v>0.2072577041275523</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1043449363140752</v>
+        <v>0.1065947938888254</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2550404161184323</v>
+        <v>0.2568371511719552</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1181767577933172</v>
+        <v>0.116573894503682</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1637543764840787</v>
+        <v>0.1658580176474065</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1000519745302053</v>
+        <v>0.09810375317354519</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1936339272672608</v>
+        <v>0.1913298107183225</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1464442152406359</v>
+        <v>0.1493179198581894</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1773282108755473</v>
+        <v>0.1771990138918538</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09387836156335952</v>
+        <v>0.09425430425830228</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2123086670602094</v>
+        <v>0.2137652145502691</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1430901989951677</v>
+        <v>0.1442696354172682</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1378687462017048</v>
+        <v>0.1358016617664959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.109563644352319</v>
+        <v>0.1082234966029484</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1275357230919393</v>
+        <v>0.126130323247328</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09705771350076206</v>
+        <v>0.09733323421921918</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1090271579703014</v>
+        <v>0.1091689356908405</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1023973854028975</v>
+        <v>0.102687759398009</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1281684617182127</v>
+        <v>0.1263655972762293</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1264201751722001</v>
+        <v>0.1258778276621192</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1268800289167525</v>
+        <v>0.1289453546810897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1108082776188314</v>
+        <v>0.1121584086349905</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1335064955186117</v>
+        <v>0.1322259349840511</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1927531862970683</v>
+        <v>0.1924688070942039</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1838486438130493</v>
+        <v>0.1847685941623247</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1546804320169107</v>
+        <v>0.1532119610225503</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1804715841249926</v>
+        <v>0.1783784789950512</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.138210306614231</v>
+        <v>0.1373942231461209</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1516877086935926</v>
+        <v>0.1527724103140767</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1427864870858578</v>
+        <v>0.1433443541399939</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1670391240646438</v>
+        <v>0.16567994831901</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1581729693255651</v>
+        <v>0.1574987822362811</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1597534819789888</v>
+        <v>0.1602953709047214</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1414575774390733</v>
+        <v>0.1427319005960212</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1643191948619711</v>
+        <v>0.1656674767151428</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1186572683068616</v>
+        <v>0.1184809033956985</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1513389402189919</v>
+        <v>0.152607864767236</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.130506057526452</v>
+        <v>0.1306157051956649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1515960865550243</v>
+        <v>0.1548503421669399</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1200789612703261</v>
+        <v>0.1211418943459012</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1192144644834047</v>
+        <v>0.1174851732108296</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1548348304888993</v>
+        <v>0.1537502924362945</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1105635512669919</v>
+        <v>0.1117217632539115</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1278019374954843</v>
+        <v>0.1278190629257445</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1432391481156847</v>
+        <v>0.1436582283688496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1491783109384356</v>
+        <v>0.1478483810851557</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.140169186126455</v>
+        <v>0.1403213396470954</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1780805765472751</v>
+        <v>0.172888934362034</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2079486432901593</v>
+        <v>0.2118532613080793</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1828739671462321</v>
+        <v>0.1860097962623589</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2203633158276843</v>
+        <v>0.2215876798865573</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1713703028168853</v>
+        <v>0.1741795289858721</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1690201541304118</v>
+        <v>0.1711575727559602</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2122090151106669</v>
+        <v>0.212083593736772</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1574786881001071</v>
+        <v>0.1627456861822263</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1654606991338526</v>
+        <v>0.1653941222679369</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1813357403719988</v>
+        <v>0.1811581195176843</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1874517113549976</v>
+        <v>0.1880752056697847</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.180305008627</v>
+        <v>0.1796656716062189</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1539954084701487</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.09947856875020042</v>
+        <v>0.09947856875020045</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1437058456153281</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1285795105934879</v>
+        <v>0.1282082776200446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.164991696189874</v>
+        <v>0.1649953239678728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1400620383201069</v>
+        <v>0.1392087355258473</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1227385556472095</v>
+        <v>0.1222581744673083</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1162104526840704</v>
+        <v>0.1182182020141286</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1132149790443786</v>
+        <v>0.1152712716834244</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1335761537151386</v>
+        <v>0.1321034226965996</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0827654654799829</v>
+        <v>0.08241356832464271</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.128041244912446</v>
+        <v>0.1271398531937272</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1438452040543624</v>
+        <v>0.1437770423220672</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1420606346684073</v>
+        <v>0.1429559895503155</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1060890330695647</v>
+        <v>0.1052746623893293</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1721077128449849</v>
+        <v>0.1719622484497696</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2169865645640155</v>
+        <v>0.2172200120146544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1864973195769654</v>
+        <v>0.1876793653522243</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1729960160730924</v>
+        <v>0.1702023733138327</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1614629889944639</v>
+        <v>0.162158657229879</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1594026719167919</v>
+        <v>0.1574978625524024</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1784595066493693</v>
+        <v>0.1769594402935464</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1190851732677549</v>
+        <v>0.1173766605579928</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1583655904224419</v>
+        <v>0.159110933106267</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1763125188102987</v>
+        <v>0.1768872373743141</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1745282173646599</v>
+        <v>0.1773315242219882</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1362275293189348</v>
+        <v>0.1356899870137347</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.143847546553388</v>
+        <v>0.1441681623315273</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.163796189784567</v>
+        <v>0.1621590583207338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1231764989715528</v>
+        <v>0.1221501551165663</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1541030503092878</v>
+        <v>0.1564092147845158</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1136539755884104</v>
+        <v>0.1124466966701255</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1227850932001825</v>
+        <v>0.123278629522971</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1250090515558696</v>
+        <v>0.1246863088772536</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1232435916623572</v>
+        <v>0.1227496571733463</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1314443443094817</v>
+        <v>0.1331820883015168</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.146452928045385</v>
+        <v>0.1462099325284876</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.127142726679158</v>
+        <v>0.1275956402206338</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1416275293917481</v>
+        <v>0.142762717467611</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1694208848364191</v>
+        <v>0.1691936911074355</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1895208409637404</v>
+        <v>0.1904677285638804</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1472605751475211</v>
+        <v>0.1461189281577772</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1840773258585659</v>
+        <v>0.1847526812632788</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1369254144854399</v>
+        <v>0.1362056538909484</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1461235814016261</v>
+        <v>0.1473085039943351</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1475704631589553</v>
+        <v>0.1484718835857695</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1442529087985298</v>
+        <v>0.1445336747949941</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1495804196739081</v>
+        <v>0.1499713120529937</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1642191328485787</v>
+        <v>0.1640271377188005</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1435961321907276</v>
+        <v>0.1447442416471867</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1594976769982665</v>
+        <v>0.1609153214168622</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>95159</v>
+        <v>95941</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>106103</v>
+        <v>104671</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>42516</v>
+        <v>41430</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>125820</v>
+        <v>123392</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>51828</v>
+        <v>52096</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>77062</v>
+        <v>75510</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>39236</v>
+        <v>38989</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>106193</v>
+        <v>106801</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>153344</v>
+        <v>156343</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>193570</v>
+        <v>192110</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>86522</v>
+        <v>87433</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>241925</v>
+        <v>241853</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>132515</v>
+        <v>134454</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>143841</v>
+        <v>144628</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>70205</v>
+        <v>71719</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>175164</v>
+        <v>176398</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>81347</v>
+        <v>80244</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>113803</v>
+        <v>115265</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>67038</v>
+        <v>65733</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>141756</v>
+        <v>140070</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>202290</v>
+        <v>206260</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>246979</v>
+        <v>246799</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>126065</v>
+        <v>126569</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>301243</v>
+        <v>303310</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>137156</v>
+        <v>138286</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>138981</v>
+        <v>136897</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>110949</v>
+        <v>109592</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>133623</v>
+        <v>132150</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>93647</v>
+        <v>93913</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>111333</v>
+        <v>111478</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>106122</v>
+        <v>106423</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>137150</v>
+        <v>135221</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>243155</v>
+        <v>242112</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>257467</v>
+        <v>261658</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>227048</v>
+        <v>229815</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>282741</v>
+        <v>280029</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>184759</v>
+        <v>184487</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>185331</v>
+        <v>186259</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>156636</v>
+        <v>155149</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>189085</v>
+        <v>186892</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>133354</v>
+        <v>132566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>154896</v>
+        <v>156003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>147980</v>
+        <v>148559</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>178745</v>
+        <v>177290</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>304228</v>
+        <v>302932</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>324174</v>
+        <v>325274</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>289849</v>
+        <v>292460</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>347996</v>
+        <v>350852</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>80414</v>
+        <v>80294</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>113401</v>
+        <v>114352</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>97767</v>
+        <v>97849</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>121378</v>
+        <v>123984</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>81915</v>
+        <v>82641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>91512</v>
+        <v>90185</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>120080</v>
+        <v>119239</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>89580</v>
+        <v>90518</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>173795</v>
+        <v>173818</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>217286</v>
+        <v>217922</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>227448</v>
+        <v>225421</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>225796</v>
+        <v>226041</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>120685</v>
+        <v>117166</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>155820</v>
+        <v>158746</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>136998</v>
+        <v>139347</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>176438</v>
+        <v>177418</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>116905</v>
+        <v>118822</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>129744</v>
+        <v>131385</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>164576</v>
+        <v>164478</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>127591</v>
+        <v>131859</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>225006</v>
+        <v>224916</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>275077</v>
+        <v>274808</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>285803</v>
+        <v>286754</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>290450</v>
+        <v>289420</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>120819</v>
+        <v>120470</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>155727</v>
+        <v>155730</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>130352</v>
+        <v>129557</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>121519</v>
+        <v>121043</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>120348</v>
+        <v>122427</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>117708</v>
+        <v>119846</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>138420</v>
+        <v>136894</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>92555</v>
+        <v>92162</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>252914</v>
+        <v>251133</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>285322</v>
+        <v>285187</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>279424</v>
+        <v>281185</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>223672</v>
+        <v>221955</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>161720</v>
+        <v>161583</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>204802</v>
+        <v>205022</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>173567</v>
+        <v>174668</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>171277</v>
+        <v>168511</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>167212</v>
+        <v>167932</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>165729</v>
+        <v>163749</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>184931</v>
+        <v>183377</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>133171</v>
+        <v>131260</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>312812</v>
+        <v>314284</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>349722</v>
+        <v>350862</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>343286</v>
+        <v>348800</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>287215</v>
+        <v>286081</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>470218</v>
+        <v>471266</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>556751</v>
+        <v>551186</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>414522</v>
+        <v>411068</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>543254</v>
+        <v>551384</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>383127</v>
+        <v>379058</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>432624</v>
+        <v>434363</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>439808</v>
+        <v>438672</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>459780</v>
+        <v>457937</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>872773</v>
+        <v>884311</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1013817</v>
+        <v>1012135</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>875184</v>
+        <v>878302</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1027639</v>
+        <v>1035876</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>553814</v>
+        <v>553071</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>644190</v>
+        <v>647409</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>495572</v>
+        <v>491730</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>648922</v>
+        <v>651303</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>461575</v>
+        <v>459149</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>514856</v>
+        <v>519031</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>519184</v>
+        <v>522355</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>538158</v>
+        <v>539206</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>993194</v>
+        <v>995789</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1136803</v>
+        <v>1135474</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>988441</v>
+        <v>996344</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1157303</v>
+        <v>1167590</v>
       </c>
     </row>
     <row r="24">
